--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf11</t>
   </si>
   <si>
     <t>Tnfrsf11a</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.63999238056335</v>
+        <v>0.05294233333333333</v>
       </c>
       <c r="H2">
-        <v>2.63999238056335</v>
+        <v>0.158827</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01658317929764529</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01672256578258148</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.40103391969023</v>
+        <v>2.075439666666667</v>
       </c>
       <c r="N2">
-        <v>1.40103391969023</v>
+        <v>6.226319</v>
       </c>
       <c r="O2">
-        <v>0.02818441077484935</v>
+        <v>0.03950687840363333</v>
       </c>
       <c r="P2">
-        <v>0.02818441077484935</v>
+        <v>0.03976820882510597</v>
       </c>
       <c r="Q2">
-        <v>3.698718872893012</v>
+        <v>0.1098786186458889</v>
       </c>
       <c r="R2">
-        <v>3.698718872893012</v>
+        <v>0.988907567813</v>
       </c>
       <c r="S2">
-        <v>0.02818441077484935</v>
+        <v>0.000655149648057722</v>
       </c>
       <c r="T2">
-        <v>0.02818441077484935</v>
+        <v>0.0006650264881332719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.63999238056335</v>
+        <v>0.05294233333333333</v>
       </c>
       <c r="H3">
-        <v>2.63999238056335</v>
+        <v>0.158827</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01658317929764529</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01672256578258148</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>19.4340846222854</v>
+        <v>0.05457933333333333</v>
       </c>
       <c r="N3">
-        <v>19.4340846222854</v>
+        <v>0.163738</v>
       </c>
       <c r="O3">
-        <v>0.3909528644022981</v>
+        <v>0.001038940866353638</v>
       </c>
       <c r="P3">
-        <v>0.3909528644022981</v>
+        <v>0.001045813260869737</v>
       </c>
       <c r="Q3">
-        <v>51.30583532605683</v>
+        <v>0.002889557258444445</v>
       </c>
       <c r="R3">
-        <v>51.30583532605683</v>
+        <v>0.026006015326</v>
       </c>
       <c r="S3">
-        <v>0.3909528644022981</v>
+        <v>1.722894266639331E-05</v>
       </c>
       <c r="T3">
-        <v>0.3909528644022981</v>
+        <v>1.748868105119022E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.63999238056335</v>
+        <v>0.05294233333333333</v>
       </c>
       <c r="H4">
-        <v>2.63999238056335</v>
+        <v>0.158827</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01658317929764529</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01672256578258148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.8392131328069</v>
+        <v>20.94875033333333</v>
       </c>
       <c r="N4">
-        <v>27.8392131328069</v>
+        <v>62.846251</v>
       </c>
       <c r="O4">
-        <v>0.5600377032678076</v>
+        <v>0.3987683888957857</v>
       </c>
       <c r="P4">
-        <v>0.5600377032678076</v>
+        <v>0.4014061652869094</v>
       </c>
       <c r="Q4">
-        <v>73.49531055148937</v>
+        <v>1.109075723064111</v>
       </c>
       <c r="R4">
-        <v>73.49531055148937</v>
+        <v>9.981681507576999</v>
       </c>
       <c r="S4">
-        <v>0.5600377032678076</v>
+        <v>0.006612847691291959</v>
       </c>
       <c r="T4">
-        <v>0.5600377032678076</v>
+        <v>0.006712541004544116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,731 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.63999238056335</v>
+        <v>0.05294233333333333</v>
       </c>
       <c r="H5">
-        <v>2.63999238056335</v>
+        <v>0.158827</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01658317929764529</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01672256578258148</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03520211261376</v>
+        <v>28.41921</v>
       </c>
       <c r="N5">
-        <v>1.03520211261376</v>
+        <v>85.25763000000001</v>
       </c>
       <c r="O5">
-        <v>0.02082502155504489</v>
+        <v>0.5409717718272966</v>
       </c>
       <c r="P5">
-        <v>0.02082502155504489</v>
+        <v>0.5445501963156112</v>
       </c>
       <c r="Q5">
-        <v>2.73292568964341</v>
+        <v>1.50457928889</v>
       </c>
       <c r="R5">
-        <v>2.73292568964341</v>
+        <v>13.54121360001</v>
       </c>
       <c r="S5">
-        <v>0.02082502155504489</v>
+        <v>0.008971031887176916</v>
       </c>
       <c r="T5">
-        <v>0.02082502155504489</v>
+        <v>0.009106276479805466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05294233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.158827</v>
+      </c>
+      <c r="I6">
+        <v>0.01658317929764529</v>
+      </c>
+      <c r="J6">
+        <v>0.01672256578258148</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.035649</v>
+      </c>
+      <c r="N6">
+        <v>2.071298</v>
+      </c>
+      <c r="O6">
+        <v>0.0197140200069308</v>
+      </c>
+      <c r="P6">
+        <v>0.01322961631150353</v>
+      </c>
+      <c r="Q6">
+        <v>0.05482967457433334</v>
+      </c>
+      <c r="R6">
+        <v>0.328978047446</v>
+      </c>
+      <c r="S6">
+        <v>0.0003269211284522999</v>
+      </c>
+      <c r="T6">
+        <v>0.0002212331290474307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.059758333333333</v>
+      </c>
+      <c r="H7">
+        <v>9.179275000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9584111212035296</v>
+      </c>
+      <c r="J7">
+        <v>0.9664668477268072</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.075439666666667</v>
+      </c>
+      <c r="N7">
+        <v>6.226319</v>
+      </c>
+      <c r="O7">
+        <v>0.03950687840363333</v>
+      </c>
+      <c r="P7">
+        <v>0.03976820882510597</v>
+      </c>
+      <c r="Q7">
+        <v>6.350343815413889</v>
+      </c>
+      <c r="R7">
+        <v>57.153094338725</v>
+      </c>
+      <c r="S7">
+        <v>0.03786383162607772</v>
+      </c>
+      <c r="T7">
+        <v>0.03843465542294156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.059758333333333</v>
+      </c>
+      <c r="H8">
+        <v>9.179275000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9584111212035296</v>
+      </c>
+      <c r="J8">
+        <v>0.9664668477268072</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.05457933333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.163738</v>
+      </c>
+      <c r="O8">
+        <v>0.001038940866353638</v>
+      </c>
+      <c r="P8">
+        <v>0.001045813260869737</v>
+      </c>
+      <c r="Q8">
+        <v>0.1669995699944445</v>
+      </c>
+      <c r="R8">
+        <v>1.50299612995</v>
+      </c>
+      <c r="S8">
+        <v>0.0009957324805861562</v>
+      </c>
+      <c r="T8">
+        <v>0.001010743845543668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.059758333333333</v>
+      </c>
+      <c r="H9">
+        <v>9.179275000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9584111212035296</v>
+      </c>
+      <c r="J9">
+        <v>0.9664668477268072</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.94875033333333</v>
+      </c>
+      <c r="N9">
+        <v>62.846251</v>
+      </c>
+      <c r="O9">
+        <v>0.3987683888957857</v>
+      </c>
+      <c r="P9">
+        <v>0.4014061652869094</v>
+      </c>
+      <c r="Q9">
+        <v>64.09811340533611</v>
+      </c>
+      <c r="R9">
+        <v>576.883020648025</v>
+      </c>
+      <c r="S9">
+        <v>0.3821840587021351</v>
+      </c>
+      <c r="T9">
+        <v>0.3879457512229451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.059758333333333</v>
+      </c>
+      <c r="H10">
+        <v>9.179275000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9584111212035296</v>
+      </c>
+      <c r="J10">
+        <v>0.9664668477268072</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>28.41921</v>
+      </c>
+      <c r="N10">
+        <v>85.25763000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5409717718272966</v>
+      </c>
+      <c r="P10">
+        <v>0.5445501963156112</v>
+      </c>
+      <c r="Q10">
+        <v>86.95591462425001</v>
+      </c>
+      <c r="R10">
+        <v>782.6032316182501</v>
+      </c>
+      <c r="S10">
+        <v>0.5184733623764594</v>
+      </c>
+      <c r="T10">
+        <v>0.5262897116621628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.059758333333333</v>
+      </c>
+      <c r="H11">
+        <v>9.179275000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9584111212035296</v>
+      </c>
+      <c r="J11">
+        <v>0.9664668477268072</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.035649</v>
+      </c>
+      <c r="N11">
+        <v>2.071298</v>
+      </c>
+      <c r="O11">
+        <v>0.0197140200069308</v>
+      </c>
+      <c r="P11">
+        <v>0.01322961631150353</v>
+      </c>
+      <c r="Q11">
+        <v>3.168835658158334</v>
+      </c>
+      <c r="R11">
+        <v>19.01301394895</v>
+      </c>
+      <c r="S11">
+        <v>0.01889413601827136</v>
+      </c>
+      <c r="T11">
+        <v>0.01278598557321397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0798315</v>
+      </c>
+      <c r="H12">
+        <v>0.159663</v>
+      </c>
+      <c r="I12">
+        <v>0.0250056994988252</v>
+      </c>
+      <c r="J12">
+        <v>0.01681058649061121</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.075439666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.226319</v>
+      </c>
+      <c r="O12">
+        <v>0.03950687840363333</v>
+      </c>
+      <c r="P12">
+        <v>0.03976820882510597</v>
+      </c>
+      <c r="Q12">
+        <v>0.1656854617495</v>
+      </c>
+      <c r="R12">
+        <v>0.994112770497</v>
+      </c>
+      <c r="S12">
+        <v>0.0009878971294978822</v>
+      </c>
+      <c r="T12">
+        <v>0.0006685269140311319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0798315</v>
+      </c>
+      <c r="H13">
+        <v>0.159663</v>
+      </c>
+      <c r="I13">
+        <v>0.0250056994988252</v>
+      </c>
+      <c r="J13">
+        <v>0.01681058649061121</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05457933333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.163738</v>
+      </c>
+      <c r="O13">
+        <v>0.001038940866353638</v>
+      </c>
+      <c r="P13">
+        <v>0.001045813260869737</v>
+      </c>
+      <c r="Q13">
+        <v>0.004357150049</v>
+      </c>
+      <c r="R13">
+        <v>0.026142900294</v>
+      </c>
+      <c r="S13">
+        <v>2.597944310108818E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.758073427487886E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0798315</v>
+      </c>
+      <c r="H14">
+        <v>0.159663</v>
+      </c>
+      <c r="I14">
+        <v>0.0250056994988252</v>
+      </c>
+      <c r="J14">
+        <v>0.01681058649061121</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20.94875033333333</v>
+      </c>
+      <c r="N14">
+        <v>62.846251</v>
+      </c>
+      <c r="O14">
+        <v>0.3987683888957857</v>
+      </c>
+      <c r="P14">
+        <v>0.4014061652869094</v>
+      </c>
+      <c r="Q14">
+        <v>1.6723701622355</v>
+      </c>
+      <c r="R14">
+        <v>10.034220973413</v>
+      </c>
+      <c r="S14">
+        <v>0.009971482502358683</v>
+      </c>
+      <c r="T14">
+        <v>0.00674787305942017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0798315</v>
+      </c>
+      <c r="H15">
+        <v>0.159663</v>
+      </c>
+      <c r="I15">
+        <v>0.0250056994988252</v>
+      </c>
+      <c r="J15">
+        <v>0.01681058649061121</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>28.41921</v>
+      </c>
+      <c r="N15">
+        <v>85.25763000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.5409717718272966</v>
+      </c>
+      <c r="P15">
+        <v>0.5445501963156112</v>
+      </c>
+      <c r="Q15">
+        <v>2.268748163115</v>
+      </c>
+      <c r="R15">
+        <v>13.61248897869</v>
+      </c>
+      <c r="S15">
+        <v>0.01352737756366041</v>
+      </c>
+      <c r="T15">
+        <v>0.009154208173642896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0798315</v>
+      </c>
+      <c r="H16">
+        <v>0.159663</v>
+      </c>
+      <c r="I16">
+        <v>0.0250056994988252</v>
+      </c>
+      <c r="J16">
+        <v>0.01681058649061121</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.035649</v>
+      </c>
+      <c r="N16">
+        <v>2.071298</v>
+      </c>
+      <c r="O16">
+        <v>0.0197140200069308</v>
+      </c>
+      <c r="P16">
+        <v>0.01322961631150353</v>
+      </c>
+      <c r="Q16">
+        <v>0.08267741314350001</v>
+      </c>
+      <c r="R16">
+        <v>0.330709652574</v>
+      </c>
+      <c r="S16">
+        <v>0.0004929628602071395</v>
+      </c>
+      <c r="T16">
+        <v>0.000222397609242131</v>
       </c>
     </row>
   </sheetData>
